--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H2">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I2">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J2">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.825812085464172</v>
+        <v>0.4435799999999999</v>
       </c>
       <c r="N2">
-        <v>0.825812085464172</v>
+        <v>1.33074</v>
       </c>
       <c r="O2">
-        <v>0.06018819410039841</v>
+        <v>0.02037110983696637</v>
       </c>
       <c r="P2">
-        <v>0.06018819410039841</v>
+        <v>0.02037110983696636</v>
       </c>
       <c r="Q2">
-        <v>80.46280616645244</v>
+        <v>48.39983649303999</v>
       </c>
       <c r="R2">
-        <v>80.46280616645244</v>
+        <v>435.59852843736</v>
       </c>
       <c r="S2">
-        <v>0.01707066850296033</v>
+        <v>0.006170549491904688</v>
       </c>
       <c r="T2">
-        <v>0.01707066850296033</v>
+        <v>0.006170549491904687</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H3">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I3">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J3">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.7127440661616</v>
+        <v>0.9186686666666667</v>
       </c>
       <c r="N3">
-        <v>12.7127440661616</v>
+        <v>2.756006</v>
       </c>
       <c r="O3">
-        <v>0.9265511135898956</v>
+        <v>0.04218923376267215</v>
       </c>
       <c r="P3">
-        <v>0.9265511135898956</v>
+        <v>0.04218923376267215</v>
       </c>
       <c r="Q3">
-        <v>1238.663225743816</v>
+        <v>100.2376420441538</v>
       </c>
       <c r="R3">
-        <v>1238.663225743816</v>
+        <v>902.1387783973842</v>
       </c>
       <c r="S3">
-        <v>0.2627898568406649</v>
+        <v>0.01277940951875368</v>
       </c>
       <c r="T3">
-        <v>0.2627898568406649</v>
+        <v>0.01277940951875368</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H4">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I4">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J4">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.18194332185329</v>
+        <v>6.947936666666666</v>
       </c>
       <c r="N4">
-        <v>0.18194332185329</v>
+        <v>20.84381</v>
       </c>
       <c r="O4">
-        <v>0.01326069230970607</v>
+        <v>0.3190792663712355</v>
       </c>
       <c r="P4">
-        <v>0.01326069230970607</v>
+        <v>0.3190792663712355</v>
       </c>
       <c r="Q4">
-        <v>17.72760473871376</v>
+        <v>758.1022558065378</v>
       </c>
       <c r="R4">
-        <v>17.72760473871376</v>
+        <v>6822.92030225884</v>
       </c>
       <c r="S4">
-        <v>0.003761018018934868</v>
+        <v>0.09665130769711429</v>
       </c>
       <c r="T4">
-        <v>0.003761018018934868</v>
+        <v>0.09665130769711426</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>224.46232497262</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H5">
-        <v>224.46232497262</v>
+        <v>327.335564</v>
       </c>
       <c r="I5">
-        <v>0.6533843570581787</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J5">
-        <v>0.6533843570581787</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.825812085464172</v>
+        <v>12.76119166666667</v>
       </c>
       <c r="N5">
-        <v>0.825812085464172</v>
+        <v>38.283575</v>
       </c>
       <c r="O5">
-        <v>0.06018819410039841</v>
+        <v>0.5860490488575828</v>
       </c>
       <c r="P5">
-        <v>0.06018819410039841</v>
+        <v>0.5860490488575828</v>
       </c>
       <c r="Q5">
-        <v>185.363700693776</v>
+        <v>1392.397290506811</v>
       </c>
       <c r="R5">
-        <v>185.363700693776</v>
+        <v>12531.5756145613</v>
       </c>
       <c r="S5">
-        <v>0.03932602450478168</v>
+        <v>0.1775182937798105</v>
       </c>
       <c r="T5">
-        <v>0.03932602450478168</v>
+        <v>0.1775182937798105</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>224.46232497262</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H6">
-        <v>224.46232497262</v>
+        <v>327.335564</v>
       </c>
       <c r="I6">
-        <v>0.6533843570581787</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J6">
-        <v>0.6533843570581787</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.7127440661616</v>
+        <v>0.2090703333333333</v>
       </c>
       <c r="N6">
-        <v>12.7127440661616</v>
+        <v>0.627211</v>
       </c>
       <c r="O6">
-        <v>0.9265511135898956</v>
+        <v>0.009601412877010921</v>
       </c>
       <c r="P6">
-        <v>0.9265511135898956</v>
+        <v>0.009601412877010921</v>
       </c>
       <c r="Q6">
-        <v>2853.532089872511</v>
+        <v>22.81205182577822</v>
       </c>
       <c r="R6">
-        <v>2853.532089872511</v>
+        <v>205.308466432004</v>
       </c>
       <c r="S6">
-        <v>0.6053940036344734</v>
+        <v>0.002908334097845583</v>
       </c>
       <c r="T6">
-        <v>0.6053940036344734</v>
+        <v>0.002908334097845583</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>224.46232497262</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H7">
-        <v>224.46232497262</v>
+        <v>327.335564</v>
       </c>
       <c r="I7">
-        <v>0.6533843570581787</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J7">
-        <v>0.6533843570581787</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.18194332185329</v>
+        <v>0.4945076666666666</v>
       </c>
       <c r="N7">
-        <v>0.18194332185329</v>
+        <v>1.483523</v>
       </c>
       <c r="O7">
-        <v>0.01326069230970607</v>
+        <v>0.02270992829453226</v>
       </c>
       <c r="P7">
-        <v>0.01326069230970607</v>
+        <v>0.02270992829453226</v>
       </c>
       <c r="Q7">
-        <v>40.83942103643118</v>
+        <v>53.95664865688578</v>
       </c>
       <c r="R7">
-        <v>40.83942103643118</v>
+        <v>485.609837911972</v>
       </c>
       <c r="S7">
-        <v>0.008664328918923637</v>
+        <v>0.006878993713181326</v>
       </c>
       <c r="T7">
-        <v>0.008664328918923637</v>
+        <v>0.006878993713181326</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.167490218804842</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H8">
-        <v>0.167490218804842</v>
+        <v>682.901626</v>
       </c>
       <c r="I8">
-        <v>0.0004875450209325077</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J8">
-        <v>0.0004875450209325077</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.825812085464172</v>
+        <v>0.4435799999999999</v>
       </c>
       <c r="N8">
-        <v>0.825812085464172</v>
+        <v>1.33074</v>
       </c>
       <c r="O8">
-        <v>0.06018819410039841</v>
+        <v>0.02037110983696637</v>
       </c>
       <c r="P8">
-        <v>0.06018819410039841</v>
+        <v>0.02037110983696636</v>
       </c>
       <c r="Q8">
-        <v>0.138315446886077</v>
+        <v>100.97383442036</v>
       </c>
       <c r="R8">
-        <v>0.138315446886077</v>
+        <v>908.7645097832399</v>
       </c>
       <c r="S8">
-        <v>2.934445435256858E-05</v>
+        <v>0.01287326751130282</v>
       </c>
       <c r="T8">
-        <v>2.934445435256858E-05</v>
+        <v>0.01287326751130282</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,184 +968,184 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.167490218804842</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H9">
-        <v>0.167490218804842</v>
+        <v>682.901626</v>
       </c>
       <c r="I9">
-        <v>0.0004875450209325077</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J9">
-        <v>0.0004875450209325077</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.7127440661616</v>
+        <v>0.9186686666666667</v>
       </c>
       <c r="N9">
-        <v>12.7127440661616</v>
+        <v>2.756006</v>
       </c>
       <c r="O9">
-        <v>0.9265511135898956</v>
+        <v>0.04218923376267215</v>
       </c>
       <c r="P9">
-        <v>0.9265511135898956</v>
+        <v>0.04218923376267215</v>
       </c>
       <c r="Q9">
-        <v>2.129260285251363</v>
+        <v>209.1201087406396</v>
       </c>
       <c r="R9">
-        <v>2.129260285251363</v>
+        <v>1882.080978665756</v>
       </c>
       <c r="S9">
-        <v>0.000451735382070224</v>
+        <v>0.02666095743778322</v>
       </c>
       <c r="T9">
-        <v>0.000451735382070224</v>
+        <v>0.02666095743778322</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.167490218804842</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H10">
-        <v>0.167490218804842</v>
+        <v>682.901626</v>
       </c>
       <c r="I10">
-        <v>0.0004875450209325077</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J10">
-        <v>0.0004875450209325077</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.18194332185329</v>
+        <v>6.947936666666666</v>
       </c>
       <c r="N10">
-        <v>0.18194332185329</v>
+        <v>20.84381</v>
       </c>
       <c r="O10">
-        <v>0.01326069230970607</v>
+        <v>0.3190792663712355</v>
       </c>
       <c r="P10">
-        <v>0.01326069230970607</v>
+        <v>0.3190792663712355</v>
       </c>
       <c r="Q10">
-        <v>0.03047372678728734</v>
+        <v>1581.585749003895</v>
       </c>
       <c r="R10">
-        <v>0.03047372678728734</v>
+        <v>14234.27174103506</v>
       </c>
       <c r="S10">
-        <v>6.465184509715191E-06</v>
+        <v>0.2016381427512278</v>
       </c>
       <c r="T10">
-        <v>6.465184509715191E-06</v>
+        <v>0.2016381427512277</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.398914818814195</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H11">
-        <v>0.398914818814195</v>
+        <v>682.901626</v>
       </c>
       <c r="I11">
-        <v>0.001161195770576136</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J11">
-        <v>0.001161195770576136</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.825812085464172</v>
+        <v>12.76119166666667</v>
       </c>
       <c r="N11">
-        <v>0.825812085464172</v>
+        <v>38.283575</v>
       </c>
       <c r="O11">
-        <v>0.06018819410039841</v>
+        <v>0.5860490488575828</v>
       </c>
       <c r="P11">
-        <v>0.06018819410039841</v>
+        <v>0.5860490488575828</v>
       </c>
       <c r="Q11">
-        <v>0.3294286784475127</v>
+        <v>2904.879512954772</v>
       </c>
       <c r="R11">
-        <v>0.3294286784475127</v>
+        <v>26143.91561659295</v>
       </c>
       <c r="S11">
-        <v>6.98902764279982E-05</v>
+        <v>0.3703463503494483</v>
       </c>
       <c r="T11">
-        <v>6.98902764279982E-05</v>
+        <v>0.3703463503494483</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.398914818814195</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H12">
-        <v>0.398914818814195</v>
+        <v>682.901626</v>
       </c>
       <c r="I12">
-        <v>0.001161195770576136</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J12">
-        <v>0.001161195770576136</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.7127440661616</v>
+        <v>0.2090703333333333</v>
       </c>
       <c r="N12">
-        <v>12.7127440661616</v>
+        <v>0.627211</v>
       </c>
       <c r="O12">
-        <v>0.9265511135898956</v>
+        <v>0.009601412877010921</v>
       </c>
       <c r="P12">
-        <v>0.9265511135898956</v>
+        <v>0.009601412877010921</v>
       </c>
       <c r="Q12">
-        <v>5.071301995784087</v>
+        <v>47.59149019389844</v>
       </c>
       <c r="R12">
-        <v>5.071301995784087</v>
+        <v>428.3234117450859</v>
       </c>
       <c r="S12">
-        <v>0.001075907234323196</v>
+        <v>0.006067492514714935</v>
       </c>
       <c r="T12">
-        <v>0.001075907234323196</v>
+        <v>0.006067492514714935</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.398914818814195</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H13">
-        <v>0.398914818814195</v>
+        <v>682.901626</v>
       </c>
       <c r="I13">
-        <v>0.001161195770576136</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J13">
-        <v>0.001161195770576136</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.18194332185329</v>
+        <v>0.4945076666666666</v>
       </c>
       <c r="N13">
-        <v>0.18194332185329</v>
+        <v>1.483523</v>
       </c>
       <c r="O13">
-        <v>0.01326069230970607</v>
+        <v>0.02270992829453226</v>
       </c>
       <c r="P13">
-        <v>0.01326069230970607</v>
+        <v>0.02270992829453226</v>
       </c>
       <c r="Q13">
-        <v>0.07257988727155795</v>
+        <v>112.5666965453775</v>
       </c>
       <c r="R13">
-        <v>0.07257988727155795</v>
+        <v>1013.100268908398</v>
       </c>
       <c r="S13">
-        <v>1.539825982494219E-05</v>
+        <v>0.01435125451866668</v>
       </c>
       <c r="T13">
-        <v>1.539825982494219E-05</v>
+        <v>0.01435125451866668</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.768454201671312</v>
+        <v>0.194568</v>
       </c>
       <c r="H14">
-        <v>0.768454201671312</v>
+        <v>0.583704</v>
       </c>
       <c r="I14">
-        <v>0.002236882980468602</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J14">
-        <v>0.002236882980468602</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.825812085464172</v>
+        <v>0.4435799999999999</v>
       </c>
       <c r="N14">
-        <v>0.825812085464172</v>
+        <v>1.33074</v>
       </c>
       <c r="O14">
-        <v>0.06018819410039841</v>
+        <v>0.02037110983696637</v>
       </c>
       <c r="P14">
-        <v>0.06018819410039841</v>
+        <v>0.02037110983696636</v>
       </c>
       <c r="Q14">
-        <v>0.6345987668658915</v>
+        <v>0.08630647343999998</v>
       </c>
       <c r="R14">
-        <v>0.6345987668658915</v>
+        <v>0.7767582609599999</v>
       </c>
       <c r="S14">
-        <v>0.0001346339470083219</v>
+        <v>1.100330919320069E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001346339470083219</v>
+        <v>1.100330919320069E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.768454201671312</v>
+        <v>0.194568</v>
       </c>
       <c r="H15">
-        <v>0.768454201671312</v>
+        <v>0.583704</v>
       </c>
       <c r="I15">
-        <v>0.002236882980468602</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J15">
-        <v>0.002236882980468602</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.7127440661616</v>
+        <v>0.9186686666666667</v>
       </c>
       <c r="N15">
-        <v>12.7127440661616</v>
+        <v>2.756006</v>
       </c>
       <c r="O15">
-        <v>0.9265511135898956</v>
+        <v>0.04218923376267215</v>
       </c>
       <c r="P15">
-        <v>0.9265511135898956</v>
+        <v>0.04218923376267215</v>
       </c>
       <c r="Q15">
-        <v>9.769161592413921</v>
+        <v>0.178743525136</v>
       </c>
       <c r="R15">
-        <v>9.769161592413921</v>
+        <v>1.608691726224</v>
       </c>
       <c r="S15">
-        <v>0.002072586416523468</v>
+        <v>2.278821269092104E-05</v>
       </c>
       <c r="T15">
-        <v>0.002072586416523468</v>
+        <v>2.278821269092104E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.768454201671312</v>
+        <v>0.194568</v>
       </c>
       <c r="H16">
-        <v>0.768454201671312</v>
+        <v>0.583704</v>
       </c>
       <c r="I16">
-        <v>0.002236882980468602</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J16">
-        <v>0.002236882980468602</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.18194332185329</v>
+        <v>6.947936666666666</v>
       </c>
       <c r="N16">
-        <v>0.18194332185329</v>
+        <v>20.84381</v>
       </c>
       <c r="O16">
-        <v>0.01326069230970607</v>
+        <v>0.3190792663712355</v>
       </c>
       <c r="P16">
-        <v>0.01326069230970607</v>
+        <v>0.3190792663712355</v>
       </c>
       <c r="Q16">
-        <v>0.1398151101441965</v>
+        <v>1.35184614136</v>
       </c>
       <c r="R16">
-        <v>0.1398151101441965</v>
+        <v>12.16661527224</v>
       </c>
       <c r="S16">
-        <v>2.96626169368124E-05</v>
+        <v>0.0001723483822492211</v>
       </c>
       <c r="T16">
-        <v>2.96626169368124E-05</v>
+        <v>0.0001723483822492211</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.3060048223797</v>
+        <v>0.194568</v>
       </c>
       <c r="H17">
-        <v>20.3060048223797</v>
+        <v>0.583704</v>
       </c>
       <c r="I17">
-        <v>0.05910847580728402</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J17">
-        <v>0.05910847580728402</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.825812085464172</v>
+        <v>12.76119166666667</v>
       </c>
       <c r="N17">
-        <v>0.825812085464172</v>
+        <v>38.283575</v>
       </c>
       <c r="O17">
-        <v>0.06018819410039841</v>
+        <v>0.5860490488575828</v>
       </c>
       <c r="P17">
-        <v>0.06018819410039841</v>
+        <v>0.5860490488575828</v>
       </c>
       <c r="Q17">
-        <v>16.76894418981491</v>
+        <v>2.4829195402</v>
       </c>
       <c r="R17">
-        <v>16.76894418981491</v>
+        <v>22.3462758618</v>
       </c>
       <c r="S17">
-        <v>0.003557632414867515</v>
+        <v>0.0003165501996979788</v>
       </c>
       <c r="T17">
-        <v>0.003557632414867515</v>
+        <v>0.0003165501996979788</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,1233 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.3060048223797</v>
+        <v>0.194568</v>
       </c>
       <c r="H18">
-        <v>20.3060048223797</v>
+        <v>0.583704</v>
       </c>
       <c r="I18">
-        <v>0.05910847580728402</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J18">
-        <v>0.05910847580728402</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>12.7127440661616</v>
+        <v>0.2090703333333333</v>
       </c>
       <c r="N18">
-        <v>12.7127440661616</v>
+        <v>0.627211</v>
       </c>
       <c r="O18">
-        <v>0.9265511135898956</v>
+        <v>0.009601412877010921</v>
       </c>
       <c r="P18">
-        <v>0.9265511135898956</v>
+        <v>0.009601412877010921</v>
       </c>
       <c r="Q18">
-        <v>258.1450423131564</v>
+        <v>0.040678396616</v>
       </c>
       <c r="R18">
-        <v>258.1450423131564</v>
+        <v>0.366105569544</v>
       </c>
       <c r="S18">
-        <v>0.05476702408184042</v>
+        <v>5.186134453294107E-06</v>
       </c>
       <c r="T18">
-        <v>0.05476702408184042</v>
+        <v>5.186134453294107E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.194568</v>
+      </c>
+      <c r="H19">
+        <v>0.583704</v>
+      </c>
+      <c r="I19">
+        <v>0.0005401428435299865</v>
+      </c>
+      <c r="J19">
+        <v>0.0005401428435299865</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.4945076666666666</v>
+      </c>
+      <c r="N19">
+        <v>1.483523</v>
+      </c>
+      <c r="O19">
+        <v>0.02270992829453226</v>
+      </c>
+      <c r="P19">
+        <v>0.02270992829453226</v>
+      </c>
+      <c r="Q19">
+        <v>0.09621536768799999</v>
+      </c>
+      <c r="R19">
+        <v>0.865938309192</v>
+      </c>
+      <c r="S19">
+        <v>1.226660524537075E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.226660524537075E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4517016666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.355105</v>
+      </c>
+      <c r="I20">
+        <v>0.001253975076377243</v>
+      </c>
+      <c r="J20">
+        <v>0.001253975076377243</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.4435799999999999</v>
+      </c>
+      <c r="N20">
+        <v>1.33074</v>
+      </c>
+      <c r="O20">
+        <v>0.02037110983696637</v>
+      </c>
+      <c r="P20">
+        <v>0.02037110983696636</v>
+      </c>
+      <c r="Q20">
+        <v>0.2003658253</v>
+      </c>
+      <c r="R20">
+        <v>1.8032924277</v>
+      </c>
+      <c r="S20">
+        <v>2.554486401369911E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.55448640136991E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4517016666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.355105</v>
+      </c>
+      <c r="I21">
+        <v>0.001253975076377243</v>
+      </c>
+      <c r="J21">
+        <v>0.001253975076377243</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9186686666666667</v>
+      </c>
+      <c r="N21">
+        <v>2.756006</v>
+      </c>
+      <c r="O21">
+        <v>0.04218923376267215</v>
+      </c>
+      <c r="P21">
+        <v>0.04218923376267215</v>
+      </c>
+      <c r="Q21">
+        <v>0.4149641678477778</v>
+      </c>
+      <c r="R21">
+        <v>3.73467751063</v>
+      </c>
+      <c r="S21">
+        <v>5.290424762984417E-05</v>
+      </c>
+      <c r="T21">
+        <v>5.290424762984417E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.4517016666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.355105</v>
+      </c>
+      <c r="I22">
+        <v>0.001253975076377243</v>
+      </c>
+      <c r="J22">
+        <v>0.001253975076377243</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>6.947936666666666</v>
+      </c>
+      <c r="N22">
+        <v>20.84381</v>
+      </c>
+      <c r="O22">
+        <v>0.3190792663712355</v>
+      </c>
+      <c r="P22">
+        <v>0.3190792663712355</v>
+      </c>
+      <c r="Q22">
+        <v>3.138394572227778</v>
+      </c>
+      <c r="R22">
+        <v>28.24555115005</v>
+      </c>
+      <c r="S22">
+        <v>0.0004001174474182648</v>
+      </c>
+      <c r="T22">
+        <v>0.0004001174474182647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.4517016666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.355105</v>
+      </c>
+      <c r="I23">
+        <v>0.001253975076377243</v>
+      </c>
+      <c r="J23">
+        <v>0.001253975076377243</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>12.76119166666667</v>
+      </c>
+      <c r="N23">
+        <v>38.283575</v>
+      </c>
+      <c r="O23">
+        <v>0.5860490488575828</v>
+      </c>
+      <c r="P23">
+        <v>0.5860490488575828</v>
+      </c>
+      <c r="Q23">
+        <v>5.764251544486111</v>
+      </c>
+      <c r="R23">
+        <v>51.878263900375</v>
+      </c>
+      <c r="S23">
+        <v>0.0007348909008019981</v>
+      </c>
+      <c r="T23">
+        <v>0.0007348909008019981</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>20.3060048223797</v>
-      </c>
-      <c r="H19">
-        <v>20.3060048223797</v>
-      </c>
-      <c r="I19">
-        <v>0.05910847580728402</v>
-      </c>
-      <c r="J19">
-        <v>0.05910847580728402</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.18194332185329</v>
-      </c>
-      <c r="N19">
-        <v>0.18194332185329</v>
-      </c>
-      <c r="O19">
-        <v>0.01326069230970607</v>
-      </c>
-      <c r="P19">
-        <v>0.01326069230970607</v>
-      </c>
-      <c r="Q19">
-        <v>3.694541970952689</v>
-      </c>
-      <c r="R19">
-        <v>3.694541970952689</v>
-      </c>
-      <c r="S19">
-        <v>0.0007838193105760989</v>
-      </c>
-      <c r="T19">
-        <v>0.0007838193105760989</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.4517016666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.355105</v>
+      </c>
+      <c r="I24">
+        <v>0.001253975076377243</v>
+      </c>
+      <c r="J24">
+        <v>0.001253975076377243</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.2090703333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.627211</v>
+      </c>
+      <c r="O24">
+        <v>0.009601412877010921</v>
+      </c>
+      <c r="P24">
+        <v>0.009601412877010921</v>
+      </c>
+      <c r="Q24">
+        <v>0.09443741801722222</v>
+      </c>
+      <c r="R24">
+        <v>0.8499367621549999</v>
+      </c>
+      <c r="S24">
+        <v>1.203993244577922E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.203993244577922E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.4517016666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.355105</v>
+      </c>
+      <c r="I25">
+        <v>0.001253975076377243</v>
+      </c>
+      <c r="J25">
+        <v>0.001253975076377243</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.4945076666666666</v>
+      </c>
+      <c r="N25">
+        <v>1.483523</v>
+      </c>
+      <c r="O25">
+        <v>0.02270992829453226</v>
+      </c>
+      <c r="P25">
+        <v>0.02270992829453226</v>
+      </c>
+      <c r="Q25">
+        <v>0.2233699372127778</v>
+      </c>
+      <c r="R25">
+        <v>2.010329434915</v>
+      </c>
+      <c r="S25">
+        <v>2.84776840676578E-05</v>
+      </c>
+      <c r="T25">
+        <v>2.84776840676578E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7729569999999999</v>
+      </c>
+      <c r="H26">
+        <v>2.318871</v>
+      </c>
+      <c r="I26">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="J26">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.4435799999999999</v>
+      </c>
+      <c r="N26">
+        <v>1.33074</v>
+      </c>
+      <c r="O26">
+        <v>0.02037110983696637</v>
+      </c>
+      <c r="P26">
+        <v>0.02037110983696636</v>
+      </c>
+      <c r="Q26">
+        <v>0.3428682660599999</v>
+      </c>
+      <c r="R26">
+        <v>3.085814394539999</v>
+      </c>
+      <c r="S26">
+        <v>4.371266017047422E-05</v>
+      </c>
+      <c r="T26">
+        <v>4.371266017047421E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.7729569999999999</v>
+      </c>
+      <c r="H27">
+        <v>2.318871</v>
+      </c>
+      <c r="I27">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="J27">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.9186686666666667</v>
+      </c>
+      <c r="N27">
+        <v>2.756006</v>
+      </c>
+      <c r="O27">
+        <v>0.04218923376267215</v>
+      </c>
+      <c r="P27">
+        <v>0.04218923376267215</v>
+      </c>
+      <c r="Q27">
+        <v>0.7100913765806666</v>
+      </c>
+      <c r="R27">
+        <v>6.390822389226</v>
+      </c>
+      <c r="S27">
+        <v>9.053034680387452E-05</v>
+      </c>
+      <c r="T27">
+        <v>9.053034680387452E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.7729569999999999</v>
+      </c>
+      <c r="H28">
+        <v>2.318871</v>
+      </c>
+      <c r="I28">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="J28">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>6.947936666666666</v>
+      </c>
+      <c r="N28">
+        <v>20.84381</v>
+      </c>
+      <c r="O28">
+        <v>0.3190792663712355</v>
+      </c>
+      <c r="P28">
+        <v>0.3190792663712355</v>
+      </c>
+      <c r="Q28">
+        <v>5.370456282056666</v>
+      </c>
+      <c r="R28">
+        <v>48.33410653850999</v>
+      </c>
+      <c r="S28">
+        <v>0.0006846855006897908</v>
+      </c>
+      <c r="T28">
+        <v>0.0006846855006897907</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.7729569999999999</v>
+      </c>
+      <c r="H29">
+        <v>2.318871</v>
+      </c>
+      <c r="I29">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="J29">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>12.76119166666667</v>
+      </c>
+      <c r="N29">
+        <v>38.283575</v>
+      </c>
+      <c r="O29">
+        <v>0.5860490488575828</v>
+      </c>
+      <c r="P29">
+        <v>0.5860490488575828</v>
+      </c>
+      <c r="Q29">
+        <v>9.863852427091665</v>
+      </c>
+      <c r="R29">
+        <v>88.77467184382499</v>
+      </c>
+      <c r="S29">
+        <v>0.001257553619855015</v>
+      </c>
+      <c r="T29">
+        <v>0.001257553619855015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.7729569999999999</v>
+      </c>
+      <c r="H30">
+        <v>2.318871</v>
+      </c>
+      <c r="I30">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="J30">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.2090703333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.627211</v>
+      </c>
+      <c r="O30">
+        <v>0.009601412877010921</v>
+      </c>
+      <c r="P30">
+        <v>0.009601412877010921</v>
+      </c>
+      <c r="Q30">
+        <v>0.1616023776423333</v>
+      </c>
+      <c r="R30">
+        <v>1.454421398781</v>
+      </c>
+      <c r="S30">
+        <v>2.060286855297301E-05</v>
+      </c>
+      <c r="T30">
+        <v>2.060286855297301E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.7729569999999999</v>
+      </c>
+      <c r="H31">
+        <v>2.318871</v>
+      </c>
+      <c r="I31">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="J31">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.4945076666666666</v>
+      </c>
+      <c r="N31">
+        <v>1.483523</v>
+      </c>
+      <c r="O31">
+        <v>0.02270992829453226</v>
+      </c>
+      <c r="P31">
+        <v>0.02270992829453226</v>
+      </c>
+      <c r="Q31">
+        <v>0.3822331625036666</v>
+      </c>
+      <c r="R31">
+        <v>3.440098462532999</v>
+      </c>
+      <c r="S31">
+        <v>4.873133501216047E-05</v>
+      </c>
+      <c r="T31">
+        <v>4.873133501216047E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>22.05086833333333</v>
+      </c>
+      <c r="H32">
+        <v>66.15260499999999</v>
+      </c>
+      <c r="I32">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="J32">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.4435799999999999</v>
+      </c>
+      <c r="N32">
+        <v>1.33074</v>
+      </c>
+      <c r="O32">
+        <v>0.02037110983696637</v>
+      </c>
+      <c r="P32">
+        <v>0.02037110983696636</v>
+      </c>
+      <c r="Q32">
+        <v>9.781324175299996</v>
+      </c>
+      <c r="R32">
+        <v>88.03191757769999</v>
+      </c>
+      <c r="S32">
+        <v>0.001247032000381484</v>
+      </c>
+      <c r="T32">
+        <v>0.001247032000381484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>22.05086833333333</v>
+      </c>
+      <c r="H33">
+        <v>66.15260499999999</v>
+      </c>
+      <c r="I33">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="J33">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.9186686666666667</v>
+      </c>
+      <c r="N33">
+        <v>2.756006</v>
+      </c>
+      <c r="O33">
+        <v>0.04218923376267215</v>
+      </c>
+      <c r="P33">
+        <v>0.04218923376267215</v>
+      </c>
+      <c r="Q33">
+        <v>20.25744181062555</v>
+      </c>
+      <c r="R33">
+        <v>182.31697629563</v>
+      </c>
+      <c r="S33">
+        <v>0.002582643999010606</v>
+      </c>
+      <c r="T33">
+        <v>0.002582643999010606</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>22.05086833333333</v>
+      </c>
+      <c r="H34">
+        <v>66.15260499999999</v>
+      </c>
+      <c r="I34">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="J34">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>6.947936666666666</v>
+      </c>
+      <c r="N34">
+        <v>20.84381</v>
+      </c>
+      <c r="O34">
+        <v>0.3190792663712355</v>
+      </c>
+      <c r="P34">
+        <v>0.3190792663712355</v>
+      </c>
+      <c r="Q34">
+        <v>153.2080366250055</v>
+      </c>
+      <c r="R34">
+        <v>1378.87232962505</v>
+      </c>
+      <c r="S34">
+        <v>0.01953266459253618</v>
+      </c>
+      <c r="T34">
+        <v>0.01953266459253617</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>22.05086833333333</v>
+      </c>
+      <c r="H35">
+        <v>66.15260499999999</v>
+      </c>
+      <c r="I35">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="J35">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>12.76119166666667</v>
+      </c>
+      <c r="N35">
+        <v>38.283575</v>
+      </c>
+      <c r="O35">
+        <v>0.5860490488575828</v>
+      </c>
+      <c r="P35">
+        <v>0.5860490488575828</v>
+      </c>
+      <c r="Q35">
+        <v>281.3953572180972</v>
+      </c>
+      <c r="R35">
+        <v>2532.558214962875</v>
+      </c>
+      <c r="S35">
+        <v>0.03587541000796895</v>
+      </c>
+      <c r="T35">
+        <v>0.03587541000796895</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>22.05086833333333</v>
+      </c>
+      <c r="H36">
+        <v>66.15260499999999</v>
+      </c>
+      <c r="I36">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="J36">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.2090703333333333</v>
+      </c>
+      <c r="N36">
+        <v>0.627211</v>
+      </c>
+      <c r="O36">
+        <v>0.009601412877010921</v>
+      </c>
+      <c r="P36">
+        <v>0.009601412877010921</v>
+      </c>
+      <c r="Q36">
+        <v>4.610182392739444</v>
+      </c>
+      <c r="R36">
+        <v>41.491641534655</v>
+      </c>
+      <c r="S36">
+        <v>0.0005877573289983553</v>
+      </c>
+      <c r="T36">
+        <v>0.0005877573289983553</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>22.05086833333333</v>
+      </c>
+      <c r="H37">
+        <v>66.15260499999999</v>
+      </c>
+      <c r="I37">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="J37">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M37">
+        <v>0.4945076666666666</v>
+      </c>
+      <c r="N37">
+        <v>1.483523</v>
+      </c>
+      <c r="O37">
+        <v>0.02270992829453226</v>
+      </c>
+      <c r="P37">
+        <v>0.02270992829453226</v>
+      </c>
+      <c r="Q37">
+        <v>10.90432344749055</v>
+      </c>
+      <c r="R37">
+        <v>98.13891102741499</v>
+      </c>
+      <c r="S37">
+        <v>0.001390204438359064</v>
+      </c>
+      <c r="T37">
+        <v>0.001390204438359064</v>
       </c>
     </row>
   </sheetData>
